--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/C3-Cd46.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/C3-Cd46.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.6290406666666667</v>
+        <v>1.857161</v>
       </c>
       <c r="H2">
-        <v>1.887122</v>
+        <v>5.571483000000001</v>
       </c>
       <c r="I2">
-        <v>0.002417816460522425</v>
+        <v>0.006673232049902625</v>
       </c>
       <c r="J2">
-        <v>0.002417816460522425</v>
+        <v>0.006673232049902625</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.727027666666666</v>
+        <v>4.128575666666666</v>
       </c>
       <c r="N2">
-        <v>11.181083</v>
+        <v>12.385727</v>
       </c>
       <c r="O2">
-        <v>0.1684786767188367</v>
+        <v>0.1596328929627292</v>
       </c>
       <c r="P2">
-        <v>0.1684786767188367</v>
+        <v>0.1596328929627292</v>
       </c>
       <c r="Q2">
-        <v>2.344451968125111</v>
+        <v>7.667429713682334</v>
       </c>
       <c r="R2">
-        <v>21.100067713126</v>
+        <v>69.006867423141</v>
       </c>
       <c r="S2">
-        <v>0.0004073505178178395</v>
+        <v>0.00106526733753756</v>
       </c>
       <c r="T2">
-        <v>0.0004073505178178395</v>
+        <v>0.00106526733753756</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.6290406666666667</v>
+        <v>1.857161</v>
       </c>
       <c r="H3">
-        <v>1.887122</v>
+        <v>5.571483000000001</v>
       </c>
       <c r="I3">
-        <v>0.002417816460522425</v>
+        <v>0.006673232049902625</v>
       </c>
       <c r="J3">
-        <v>0.002417816460522425</v>
+        <v>0.006673232049902625</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,28 +623,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.5869133333333333</v>
+        <v>0.5869133333333334</v>
       </c>
       <c r="N3">
         <v>1.76074</v>
       </c>
       <c r="O3">
-        <v>0.02653116386363686</v>
+        <v>0.02269321937704552</v>
       </c>
       <c r="P3">
-        <v>0.02653116386363687</v>
+        <v>0.02269321937704552</v>
       </c>
       <c r="Q3">
-        <v>0.3691923544755555</v>
+        <v>1.089992553046667</v>
       </c>
       <c r="R3">
-        <v>3.32273119028</v>
+        <v>9.809932977420003</v>
       </c>
       <c r="S3">
-        <v>6.414748470631893E-05</v>
+        <v>0.0001514371188623715</v>
       </c>
       <c r="T3">
-        <v>6.414748470631894E-05</v>
+        <v>0.0001514371188623714</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.6290406666666667</v>
+        <v>1.857161</v>
       </c>
       <c r="H4">
-        <v>1.887122</v>
+        <v>5.571483000000001</v>
       </c>
       <c r="I4">
-        <v>0.002417816460522425</v>
+        <v>0.006673232049902625</v>
       </c>
       <c r="J4">
-        <v>0.002417816460522425</v>
+        <v>0.006673232049902625</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4571283333333334</v>
+        <v>0.4350383333333334</v>
       </c>
       <c r="N4">
-        <v>1.371385</v>
+        <v>1.305115</v>
       </c>
       <c r="O4">
-        <v>0.02066428896664678</v>
+        <v>0.01682091677775979</v>
       </c>
       <c r="P4">
-        <v>0.02066428896664678</v>
+        <v>0.01682091677775978</v>
       </c>
       <c r="Q4">
-        <v>0.2875523115522223</v>
+        <v>0.8079362261716668</v>
       </c>
       <c r="R4">
-        <v>2.58797080397</v>
+        <v>7.271426035545001</v>
       </c>
       <c r="S4">
-        <v>4.99624580085505E-05</v>
+        <v>0.0001122498809500914</v>
       </c>
       <c r="T4">
-        <v>4.996245800855051E-05</v>
+        <v>0.0001122498809500914</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.6290406666666667</v>
+        <v>1.857161</v>
       </c>
       <c r="H5">
-        <v>1.887122</v>
+        <v>5.571483000000001</v>
       </c>
       <c r="I5">
-        <v>0.002417816460522425</v>
+        <v>0.006673232049902625</v>
       </c>
       <c r="J5">
-        <v>0.002417816460522425</v>
+        <v>0.006673232049902625</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.433359</v>
+        <v>0.8094829999999998</v>
       </c>
       <c r="N5">
-        <v>4.300077</v>
+        <v>2.428449</v>
       </c>
       <c r="O5">
-        <v>0.06479437481584789</v>
+        <v>0.03129895720149869</v>
       </c>
       <c r="P5">
-        <v>0.0647943748158479</v>
+        <v>0.03129895720149869</v>
       </c>
       <c r="Q5">
-        <v>0.9016411009326667</v>
+        <v>1.503340257763</v>
       </c>
       <c r="R5">
-        <v>8.114769908393999</v>
+        <v>13.530062319867</v>
       </c>
       <c r="S5">
-        <v>0.0001566609059790167</v>
+        <v>0.0002088652043255716</v>
       </c>
       <c r="T5">
-        <v>0.0001566609059790167</v>
+        <v>0.0002088652043255716</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.6290406666666667</v>
+        <v>1.857161</v>
       </c>
       <c r="H6">
-        <v>1.887122</v>
+        <v>5.571483000000001</v>
       </c>
       <c r="I6">
-        <v>0.002417816460522425</v>
+        <v>0.006673232049902625</v>
       </c>
       <c r="J6">
-        <v>0.002417816460522425</v>
+        <v>0.006673232049902625</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>15.33829433333333</v>
+        <v>19.47575366666667</v>
       </c>
       <c r="N6">
-        <v>46.014883</v>
+        <v>58.427261</v>
       </c>
       <c r="O6">
-        <v>0.693360973817303</v>
+        <v>0.7530371613485785</v>
       </c>
       <c r="P6">
-        <v>0.6933609738173031</v>
+        <v>0.7530371613485783</v>
       </c>
       <c r="Q6">
-        <v>9.648410892969554</v>
+        <v>36.16961015534034</v>
       </c>
       <c r="R6">
-        <v>86.835698036726</v>
+        <v>325.5264913980631</v>
       </c>
       <c r="S6">
-        <v>0.001676419575579333</v>
+        <v>0.005025191719879028</v>
       </c>
       <c r="T6">
-        <v>0.001676419575579333</v>
+        <v>0.005025191719879027</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.6290406666666667</v>
+        <v>1.857161</v>
       </c>
       <c r="H7">
-        <v>1.887122</v>
+        <v>5.571483000000001</v>
       </c>
       <c r="I7">
-        <v>0.002417816460522425</v>
+        <v>0.006673232049902625</v>
       </c>
       <c r="J7">
-        <v>0.002417816460522425</v>
+        <v>0.006673232049902625</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.5789353333333334</v>
+        <v>0.4271743333333333</v>
       </c>
       <c r="N7">
-        <v>1.736806</v>
+        <v>1.281523</v>
       </c>
       <c r="O7">
-        <v>0.02617052181772873</v>
+        <v>0.01651685233238837</v>
       </c>
       <c r="P7">
-        <v>0.02617052181772874</v>
+        <v>0.01651685233238837</v>
       </c>
       <c r="Q7">
-        <v>0.3641738680368889</v>
+        <v>0.7933315120676667</v>
       </c>
       <c r="R7">
-        <v>3.277564812332</v>
+        <v>7.139983608609</v>
       </c>
       <c r="S7">
-        <v>6.327551843136578E-05</v>
+        <v>0.000110220788348003</v>
       </c>
       <c r="T7">
-        <v>6.327551843136578E-05</v>
+        <v>0.000110220788348003</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>248.636413</v>
       </c>
       <c r="I8">
-        <v>0.3185576830944962</v>
+        <v>0.2978037409437354</v>
       </c>
       <c r="J8">
-        <v>0.3185576830944962</v>
+        <v>0.2978037409437354</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.727027666666666</v>
+        <v>4.128575666666666</v>
       </c>
       <c r="N8">
-        <v>11.181083</v>
+        <v>12.385727</v>
       </c>
       <c r="O8">
-        <v>0.1684786767188367</v>
+        <v>0.1596328929627292</v>
       </c>
       <c r="P8">
-        <v>0.1684786767188367</v>
+        <v>0.1596328929627292</v>
       </c>
       <c r="Q8">
-        <v>308.8915967305865</v>
+        <v>342.1714148530279</v>
       </c>
       <c r="R8">
-        <v>2780.024370575279</v>
+        <v>3079.542733677251</v>
       </c>
       <c r="S8">
-        <v>0.05367017690637924</v>
+        <v>0.04753927270197165</v>
       </c>
       <c r="T8">
-        <v>0.05367017690637924</v>
+        <v>0.04753927270197164</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>248.636413</v>
       </c>
       <c r="I9">
-        <v>0.3185576830944962</v>
+        <v>0.2978037409437354</v>
       </c>
       <c r="J9">
-        <v>0.3185576830944962</v>
+        <v>0.2978037409437354</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -995,28 +995,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.5869133333333333</v>
+        <v>0.5869133333333334</v>
       </c>
       <c r="N9">
         <v>1.76074</v>
       </c>
       <c r="O9">
-        <v>0.02653116386363686</v>
+        <v>0.02269321937704552</v>
       </c>
       <c r="P9">
-        <v>0.02653116386363687</v>
+        <v>0.02269321937704552</v>
       </c>
       <c r="Q9">
-        <v>48.64267531395777</v>
+        <v>48.64267531395778</v>
       </c>
       <c r="R9">
         <v>437.78407782562</v>
       </c>
       <c r="S9">
-        <v>0.008451706090200579</v>
+        <v>0.006758125624541021</v>
       </c>
       <c r="T9">
-        <v>0.008451706090200581</v>
+        <v>0.006758125624541018</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>248.636413</v>
       </c>
       <c r="I10">
-        <v>0.3185576830944962</v>
+        <v>0.2978037409437354</v>
       </c>
       <c r="J10">
-        <v>0.3185576830944962</v>
+        <v>0.2978037409437354</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4571283333333334</v>
+        <v>0.4350383333333334</v>
       </c>
       <c r="N10">
-        <v>1.371385</v>
+        <v>1.305115</v>
       </c>
       <c r="O10">
-        <v>0.02066428896664678</v>
+        <v>0.01682091677775979</v>
       </c>
       <c r="P10">
-        <v>0.02066428896664678</v>
+        <v>0.01682091677775978</v>
       </c>
       <c r="Q10">
-        <v>37.88624969355612</v>
+        <v>36.05545690583278</v>
       </c>
       <c r="R10">
-        <v>340.976247242005</v>
+        <v>324.499112152495</v>
       </c>
       <c r="S10">
-        <v>0.006582768016010158</v>
+        <v>0.005009331942520107</v>
       </c>
       <c r="T10">
-        <v>0.006582768016010159</v>
+        <v>0.005009331942520106</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>248.636413</v>
       </c>
       <c r="I11">
-        <v>0.3185576830944962</v>
+        <v>0.2978037409437354</v>
       </c>
       <c r="J11">
-        <v>0.3185576830944962</v>
+        <v>0.2978037409437354</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.433359</v>
+        <v>0.8094829999999998</v>
       </c>
       <c r="N11">
-        <v>4.300077</v>
+        <v>2.428449</v>
       </c>
       <c r="O11">
-        <v>0.06479437481584789</v>
+        <v>0.03129895720149869</v>
       </c>
       <c r="P11">
-        <v>0.0647943748158479</v>
+        <v>0.03129895720149869</v>
       </c>
       <c r="Q11">
-        <v>118.7950801004223</v>
+        <v>67.08898316815966</v>
       </c>
       <c r="R11">
-        <v>1069.155720903801</v>
+        <v>603.8008485134369</v>
       </c>
       <c r="S11">
-        <v>0.02064074591889288</v>
+        <v>0.009320946542244175</v>
       </c>
       <c r="T11">
-        <v>0.02064074591889288</v>
+        <v>0.009320946542244175</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>248.636413</v>
       </c>
       <c r="I12">
-        <v>0.3185576830944962</v>
+        <v>0.2978037409437354</v>
       </c>
       <c r="J12">
-        <v>0.3185576830944962</v>
+        <v>0.2978037409437354</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>15.33829433333333</v>
+        <v>19.47575366666667</v>
       </c>
       <c r="N12">
-        <v>46.014883</v>
+        <v>58.427261</v>
       </c>
       <c r="O12">
-        <v>0.693360973817303</v>
+        <v>0.7530371613485785</v>
       </c>
       <c r="P12">
-        <v>0.6933609738173031</v>
+        <v>0.7530371613485783</v>
       </c>
       <c r="Q12">
-        <v>1271.219494859409</v>
+        <v>1614.127177383866</v>
       </c>
       <c r="R12">
-        <v>11440.97545373468</v>
+        <v>14527.14459645479</v>
       </c>
       <c r="S12">
-        <v>0.2208754653673837</v>
+        <v>0.2242572837192579</v>
       </c>
       <c r="T12">
-        <v>0.2208754653673837</v>
+        <v>0.2242572837192579</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,40 +1231,40 @@
         <v>248.636413</v>
       </c>
       <c r="I13">
-        <v>0.3185576830944962</v>
+        <v>0.2978037409437354</v>
       </c>
       <c r="J13">
-        <v>0.3185576830944962</v>
+        <v>0.2978037409437354</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.5789353333333334</v>
+        <v>0.4271743333333333</v>
       </c>
       <c r="N13">
-        <v>1.736806</v>
+        <v>1.281523</v>
       </c>
       <c r="O13">
-        <v>0.02617052181772873</v>
+        <v>0.01651685233238837</v>
       </c>
       <c r="P13">
-        <v>0.02617052181772874</v>
+        <v>0.01651685233238837</v>
       </c>
       <c r="Q13">
-        <v>47.98146821298645</v>
+        <v>35.40369798855544</v>
       </c>
       <c r="R13">
-        <v>431.833213916878</v>
+        <v>318.633281896999</v>
       </c>
       <c r="S13">
-        <v>0.008336820795629628</v>
+        <v>0.004918780413200518</v>
       </c>
       <c r="T13">
-        <v>0.008336820795629628</v>
+        <v>0.004918780413200517</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>41.02052933333334</v>
+        <v>59.75754533333333</v>
       </c>
       <c r="H14">
-        <v>123.061588</v>
+        <v>179.272636</v>
       </c>
       <c r="I14">
-        <v>0.1576688381166819</v>
+        <v>0.214723422870666</v>
       </c>
       <c r="J14">
-        <v>0.1576688381166819</v>
+        <v>0.214723422870666</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.727027666666666</v>
+        <v>4.128575666666666</v>
       </c>
       <c r="N14">
-        <v>11.181083</v>
+        <v>12.385727</v>
       </c>
       <c r="O14">
-        <v>0.1684786767188367</v>
+        <v>0.1596328929627292</v>
       </c>
       <c r="P14">
-        <v>0.1684786767188367</v>
+        <v>0.1596328929627292</v>
       </c>
       <c r="Q14">
-        <v>152.8846477266449</v>
+        <v>246.7135475629302</v>
       </c>
       <c r="R14">
-        <v>1375.961829539804</v>
+        <v>2220.421928066372</v>
       </c>
       <c r="S14">
-        <v>0.02656383720569503</v>
+        <v>0.03427692117970387</v>
       </c>
       <c r="T14">
-        <v>0.02656383720569504</v>
+        <v>0.03427692117970387</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>41.02052933333334</v>
+        <v>59.75754533333333</v>
       </c>
       <c r="H15">
-        <v>123.061588</v>
+        <v>179.272636</v>
       </c>
       <c r="I15">
-        <v>0.1576688381166819</v>
+        <v>0.214723422870666</v>
       </c>
       <c r="J15">
-        <v>0.1576688381166819</v>
+        <v>0.214723422870666</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1367,28 +1367,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>0.5869133333333333</v>
+        <v>0.5869133333333334</v>
       </c>
       <c r="N15">
         <v>1.76074</v>
       </c>
       <c r="O15">
-        <v>0.02653116386363686</v>
+        <v>0.02269321937704552</v>
       </c>
       <c r="P15">
-        <v>0.02653116386363687</v>
+        <v>0.02269321937704552</v>
       </c>
       <c r="Q15">
-        <v>24.07549560612444</v>
+        <v>35.07250012340445</v>
       </c>
       <c r="R15">
-        <v>216.67946045512</v>
+        <v>315.6525011106401</v>
       </c>
       <c r="S15">
-        <v>0.00418313778026292</v>
+        <v>0.004872765740594137</v>
       </c>
       <c r="T15">
-        <v>0.004183137780262921</v>
+        <v>0.004872765740594137</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>41.02052933333334</v>
+        <v>59.75754533333333</v>
       </c>
       <c r="H16">
-        <v>123.061588</v>
+        <v>179.272636</v>
       </c>
       <c r="I16">
-        <v>0.1576688381166819</v>
+        <v>0.214723422870666</v>
       </c>
       <c r="J16">
-        <v>0.1576688381166819</v>
+        <v>0.214723422870666</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.4571283333333334</v>
+        <v>0.4350383333333334</v>
       </c>
       <c r="N16">
-        <v>1.371385</v>
+        <v>1.305115</v>
       </c>
       <c r="O16">
-        <v>0.02066428896664678</v>
+        <v>0.01682091677775979</v>
       </c>
       <c r="P16">
-        <v>0.02066428896664678</v>
+        <v>0.01682091677775978</v>
       </c>
       <c r="Q16">
-        <v>18.75164620659778</v>
+        <v>25.99682292590445</v>
       </c>
       <c r="R16">
-        <v>168.76481585938</v>
+        <v>233.97140633314</v>
       </c>
       <c r="S16">
-        <v>0.003258114431878566</v>
+        <v>0.003611844826343195</v>
       </c>
       <c r="T16">
-        <v>0.003258114431878566</v>
+        <v>0.003611844826343195</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>41.02052933333334</v>
+        <v>59.75754533333333</v>
       </c>
       <c r="H17">
-        <v>123.061588</v>
+        <v>179.272636</v>
       </c>
       <c r="I17">
-        <v>0.1576688381166819</v>
+        <v>0.214723422870666</v>
       </c>
       <c r="J17">
-        <v>0.1576688381166819</v>
+        <v>0.214723422870666</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.433359</v>
+        <v>0.8094829999999998</v>
       </c>
       <c r="N17">
-        <v>4.300077</v>
+        <v>2.428449</v>
       </c>
       <c r="O17">
-        <v>0.06479437481584789</v>
+        <v>0.03129895720149869</v>
       </c>
       <c r="P17">
-        <v>0.0647943748158479</v>
+        <v>0.03129895720149869</v>
       </c>
       <c r="Q17">
-        <v>58.79714490469734</v>
+        <v>48.37271706906266</v>
       </c>
       <c r="R17">
-        <v>529.174304142276</v>
+        <v>435.3544536215639</v>
       </c>
       <c r="S17">
-        <v>0.01021605379371153</v>
+        <v>0.00672061922258828</v>
       </c>
       <c r="T17">
-        <v>0.01021605379371153</v>
+        <v>0.006720619222588281</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>41.02052933333334</v>
+        <v>59.75754533333333</v>
       </c>
       <c r="H18">
-        <v>123.061588</v>
+        <v>179.272636</v>
       </c>
       <c r="I18">
-        <v>0.1576688381166819</v>
+        <v>0.214723422870666</v>
       </c>
       <c r="J18">
-        <v>0.1576688381166819</v>
+        <v>0.214723422870666</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>15.33829433333333</v>
+        <v>19.47575366666667</v>
       </c>
       <c r="N18">
-        <v>46.014883</v>
+        <v>58.427261</v>
       </c>
       <c r="O18">
-        <v>0.693360973817303</v>
+        <v>0.7530371613485785</v>
       </c>
       <c r="P18">
-        <v>0.6933609738173031</v>
+        <v>0.7530371613485783</v>
       </c>
       <c r="Q18">
-        <v>629.1849526238004</v>
+        <v>1163.823232636666</v>
       </c>
       <c r="R18">
-        <v>5662.664573614204</v>
+        <v>10474.40909373</v>
       </c>
       <c r="S18">
-        <v>0.1093214191372252</v>
+        <v>0.1616947168335768</v>
       </c>
       <c r="T18">
-        <v>0.1093214191372253</v>
+        <v>0.1616947168335768</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>41.02052933333334</v>
+        <v>59.75754533333333</v>
       </c>
       <c r="H19">
-        <v>123.061588</v>
+        <v>179.272636</v>
       </c>
       <c r="I19">
-        <v>0.1576688381166819</v>
+        <v>0.214723422870666</v>
       </c>
       <c r="J19">
-        <v>0.1576688381166819</v>
+        <v>0.214723422870666</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.5789353333333334</v>
+        <v>0.4271743333333333</v>
       </c>
       <c r="N19">
-        <v>1.736806</v>
+        <v>1.281523</v>
       </c>
       <c r="O19">
-        <v>0.02617052181772873</v>
+        <v>0.01651685233238837</v>
       </c>
       <c r="P19">
-        <v>0.02617052181772874</v>
+        <v>0.01651685233238837</v>
       </c>
       <c r="Q19">
-        <v>23.74823382310311</v>
+        <v>25.52688958940311</v>
       </c>
       <c r="R19">
-        <v>213.734104407928</v>
+        <v>229.742006304628</v>
       </c>
       <c r="S19">
-        <v>0.004126275767908563</v>
+        <v>0.003546555067859775</v>
       </c>
       <c r="T19">
-        <v>0.004126275767908564</v>
+        <v>0.003546555067859775</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.3953956666666666</v>
+        <v>0.3694876666666667</v>
       </c>
       <c r="H20">
-        <v>1.186187</v>
+        <v>1.108463</v>
       </c>
       <c r="I20">
-        <v>0.001519765258344566</v>
+        <v>0.00132765922784494</v>
       </c>
       <c r="J20">
-        <v>0.001519765258344566</v>
+        <v>0.00132765922784494</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.727027666666666</v>
+        <v>4.128575666666666</v>
       </c>
       <c r="N20">
-        <v>11.181083</v>
+        <v>12.385727</v>
       </c>
       <c r="O20">
-        <v>0.1684786767188367</v>
+        <v>0.1596328929627292</v>
       </c>
       <c r="P20">
-        <v>0.1684786767188367</v>
+        <v>0.1596328929627292</v>
       </c>
       <c r="Q20">
-        <v>1.473650588946778</v>
+        <v>1.525457789733444</v>
       </c>
       <c r="R20">
-        <v>13.262855300521</v>
+        <v>13.729120107601</v>
       </c>
       <c r="S20">
-        <v>0.0002560480396491533</v>
+        <v>0.0002119380834095511</v>
       </c>
       <c r="T20">
-        <v>0.0002560480396491534</v>
+        <v>0.0002119380834095511</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.3953956666666666</v>
+        <v>0.3694876666666667</v>
       </c>
       <c r="H21">
-        <v>1.186187</v>
+        <v>1.108463</v>
       </c>
       <c r="I21">
-        <v>0.001519765258344566</v>
+        <v>0.00132765922784494</v>
       </c>
       <c r="J21">
-        <v>0.001519765258344566</v>
+        <v>0.00132765922784494</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -1739,28 +1739,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.5869133333333333</v>
+        <v>0.5869133333333334</v>
       </c>
       <c r="N21">
         <v>1.76074</v>
       </c>
       <c r="O21">
-        <v>0.02653116386363686</v>
+        <v>0.02269321937704552</v>
       </c>
       <c r="P21">
-        <v>0.02653116386363687</v>
+        <v>0.02269321937704552</v>
       </c>
       <c r="Q21">
-        <v>0.2320629887088889</v>
+        <v>0.2168572380688889</v>
       </c>
       <c r="R21">
-        <v>2.08856689838</v>
+        <v>1.95171514262</v>
       </c>
       <c r="S21">
-        <v>4.032114110340208E-05</v>
+        <v>3.01288621154441E-05</v>
       </c>
       <c r="T21">
-        <v>4.032114110340208E-05</v>
+        <v>3.012886211544409E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.3953956666666666</v>
+        <v>0.3694876666666667</v>
       </c>
       <c r="H22">
-        <v>1.186187</v>
+        <v>1.108463</v>
       </c>
       <c r="I22">
-        <v>0.001519765258344566</v>
+        <v>0.00132765922784494</v>
       </c>
       <c r="J22">
-        <v>0.001519765258344566</v>
+        <v>0.00132765922784494</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.4571283333333334</v>
+        <v>0.4350383333333334</v>
       </c>
       <c r="N22">
-        <v>1.371385</v>
+        <v>1.305115</v>
       </c>
       <c r="O22">
-        <v>0.02066428896664678</v>
+        <v>0.01682091677775979</v>
       </c>
       <c r="P22">
-        <v>0.02066428896664678</v>
+        <v>0.01682091677775978</v>
       </c>
       <c r="Q22">
-        <v>0.1807465621105556</v>
+        <v>0.1607412986938889</v>
       </c>
       <c r="R22">
-        <v>1.626719058995</v>
+        <v>1.446671688245</v>
       </c>
       <c r="S22">
-        <v>3.140486845990269E-05</v>
+        <v>2.233244538080456E-05</v>
       </c>
       <c r="T22">
-        <v>3.14048684599027E-05</v>
+        <v>2.233244538080455E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.3953956666666666</v>
+        <v>0.3694876666666667</v>
       </c>
       <c r="H23">
-        <v>1.186187</v>
+        <v>1.108463</v>
       </c>
       <c r="I23">
-        <v>0.001519765258344566</v>
+        <v>0.00132765922784494</v>
       </c>
       <c r="J23">
-        <v>0.001519765258344566</v>
+        <v>0.00132765922784494</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.433359</v>
+        <v>0.8094829999999998</v>
       </c>
       <c r="N23">
-        <v>4.300077</v>
+        <v>2.428449</v>
       </c>
       <c r="O23">
-        <v>0.06479437481584789</v>
+        <v>0.03129895720149869</v>
       </c>
       <c r="P23">
-        <v>0.0647943748158479</v>
+        <v>0.03129895720149869</v>
       </c>
       <c r="Q23">
-        <v>0.5667439373776667</v>
+        <v>0.2990939848763333</v>
       </c>
       <c r="R23">
-        <v>5.100695436399</v>
+        <v>2.691845863887</v>
       </c>
       <c r="S23">
-        <v>9.847223978128168E-05</v>
+        <v>4.155434935049358E-05</v>
       </c>
       <c r="T23">
-        <v>9.847223978128171E-05</v>
+        <v>4.155434935049358E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.3953956666666666</v>
+        <v>0.3694876666666667</v>
       </c>
       <c r="H24">
-        <v>1.186187</v>
+        <v>1.108463</v>
       </c>
       <c r="I24">
-        <v>0.001519765258344566</v>
+        <v>0.00132765922784494</v>
       </c>
       <c r="J24">
-        <v>0.001519765258344566</v>
+        <v>0.00132765922784494</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>15.33829433333333</v>
+        <v>19.47575366666667</v>
       </c>
       <c r="N24">
-        <v>46.014883</v>
+        <v>58.427261</v>
       </c>
       <c r="O24">
-        <v>0.693360973817303</v>
+        <v>0.7530371613485785</v>
       </c>
       <c r="P24">
-        <v>0.6933609738173031</v>
+        <v>0.7530371613485783</v>
       </c>
       <c r="Q24">
-        <v>6.064695113457888</v>
+        <v>7.196050778871444</v>
       </c>
       <c r="R24">
-        <v>54.58225602112099</v>
+        <v>64.764457009843</v>
       </c>
       <c r="S24">
-        <v>0.001053745919499493</v>
+        <v>0.0009997767361745993</v>
       </c>
       <c r="T24">
-        <v>0.001053745919499493</v>
+        <v>0.0009997767361745993</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.3953956666666666</v>
+        <v>0.3694876666666667</v>
       </c>
       <c r="H25">
-        <v>1.186187</v>
+        <v>1.108463</v>
       </c>
       <c r="I25">
-        <v>0.001519765258344566</v>
+        <v>0.00132765922784494</v>
       </c>
       <c r="J25">
-        <v>0.001519765258344566</v>
+        <v>0.00132765922784494</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.5789353333333334</v>
+        <v>0.4271743333333333</v>
       </c>
       <c r="N25">
-        <v>1.736806</v>
+        <v>1.281523</v>
       </c>
       <c r="O25">
-        <v>0.02617052181772873</v>
+        <v>0.01651685233238837</v>
       </c>
       <c r="P25">
-        <v>0.02617052181772874</v>
+        <v>0.01651685233238837</v>
       </c>
       <c r="Q25">
-        <v>0.2289085220802222</v>
+        <v>0.1578356476832222</v>
       </c>
       <c r="R25">
-        <v>2.060176698722</v>
+        <v>1.420520829149</v>
       </c>
       <c r="S25">
-        <v>3.97730498513326E-05</v>
+        <v>2.192875141404765E-05</v>
       </c>
       <c r="T25">
-        <v>3.97730498513326E-05</v>
+        <v>2.192875141404764E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>105.0835686666667</v>
+        <v>127.8666333333333</v>
       </c>
       <c r="H26">
-        <v>315.250706</v>
+        <v>383.5999</v>
       </c>
       <c r="I26">
-        <v>0.4039051773855191</v>
+        <v>0.4594559737541049</v>
       </c>
       <c r="J26">
-        <v>0.403905177385519</v>
+        <v>0.4594559737541049</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>3.727027666666666</v>
+        <v>4.128575666666666</v>
       </c>
       <c r="N26">
-        <v>11.181083</v>
+        <v>12.385727</v>
       </c>
       <c r="O26">
-        <v>0.1684786767188367</v>
+        <v>0.1596328929627292</v>
       </c>
       <c r="P26">
-        <v>0.1684786767188367</v>
+        <v>0.1596328929627292</v>
       </c>
       <c r="Q26">
-        <v>391.6493677327331</v>
+        <v>527.9070709585889</v>
       </c>
       <c r="R26">
-        <v>3524.844309594598</v>
+        <v>4751.163638627299</v>
       </c>
       <c r="S26">
-        <v>0.06804940980579924</v>
+        <v>0.07334428627937555</v>
       </c>
       <c r="T26">
-        <v>0.06804940980579924</v>
+        <v>0.07334428627937553</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>105.0835686666667</v>
+        <v>127.8666333333333</v>
       </c>
       <c r="H27">
-        <v>315.250706</v>
+        <v>383.5999</v>
       </c>
       <c r="I27">
-        <v>0.4039051773855191</v>
+        <v>0.4594559737541049</v>
       </c>
       <c r="J27">
-        <v>0.403905177385519</v>
+        <v>0.4594559737541049</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -2111,28 +2111,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M27">
-        <v>0.5869133333333333</v>
+        <v>0.5869133333333334</v>
       </c>
       <c r="N27">
         <v>1.76074</v>
       </c>
       <c r="O27">
-        <v>0.02653116386363686</v>
+        <v>0.02269321937704552</v>
       </c>
       <c r="P27">
-        <v>0.02653116386363687</v>
+        <v>0.02269321937704552</v>
       </c>
       <c r="Q27">
-        <v>61.67494756471555</v>
+        <v>75.04663199177779</v>
       </c>
       <c r="R27">
-        <v>555.07452808244</v>
+        <v>675.4196879260001</v>
       </c>
       <c r="S27">
-        <v>0.01071607444658652</v>
+        <v>0.01042653520649597</v>
       </c>
       <c r="T27">
-        <v>0.01071607444658652</v>
+        <v>0.01042653520649597</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>105.0835686666667</v>
+        <v>127.8666333333333</v>
       </c>
       <c r="H28">
-        <v>315.250706</v>
+        <v>383.5999</v>
       </c>
       <c r="I28">
-        <v>0.4039051773855191</v>
+        <v>0.4594559737541049</v>
       </c>
       <c r="J28">
-        <v>0.403905177385519</v>
+        <v>0.4594559737541049</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.4571283333333334</v>
+        <v>0.4350383333333334</v>
       </c>
       <c r="N28">
-        <v>1.371385</v>
+        <v>1.305115</v>
       </c>
       <c r="O28">
-        <v>0.02066428896664678</v>
+        <v>0.01682091677775979</v>
       </c>
       <c r="P28">
-        <v>0.02066428896664678</v>
+        <v>0.01682091677775978</v>
       </c>
       <c r="Q28">
-        <v>48.03667660531222</v>
+        <v>55.62688705427778</v>
       </c>
       <c r="R28">
-        <v>432.33008944781</v>
+        <v>500.6419834885</v>
       </c>
       <c r="S28">
-        <v>0.008346413300619091</v>
+        <v>0.007728470697562382</v>
       </c>
       <c r="T28">
-        <v>0.008346413300619091</v>
+        <v>0.007728470697562381</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>105.0835686666667</v>
+        <v>127.8666333333333</v>
       </c>
       <c r="H29">
-        <v>315.250706</v>
+        <v>383.5999</v>
       </c>
       <c r="I29">
-        <v>0.4039051773855191</v>
+        <v>0.4594559737541049</v>
       </c>
       <c r="J29">
-        <v>0.403905177385519</v>
+        <v>0.4594559737541049</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.433359</v>
+        <v>0.8094829999999998</v>
       </c>
       <c r="N29">
-        <v>4.300077</v>
+        <v>2.428449</v>
       </c>
       <c r="O29">
-        <v>0.06479437481584789</v>
+        <v>0.03129895720149869</v>
       </c>
       <c r="P29">
-        <v>0.0647943748158479</v>
+        <v>0.03129895720149869</v>
       </c>
       <c r="Q29">
-        <v>150.6224789004847</v>
+        <v>103.5058659505666</v>
       </c>
       <c r="R29">
-        <v>1355.602310104362</v>
+        <v>931.5527935550998</v>
       </c>
       <c r="S29">
-        <v>0.02617078345357885</v>
+        <v>0.01438049285850263</v>
       </c>
       <c r="T29">
-        <v>0.02617078345357885</v>
+        <v>0.01438049285850263</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>105.0835686666667</v>
+        <v>127.8666333333333</v>
       </c>
       <c r="H30">
-        <v>315.250706</v>
+        <v>383.5999</v>
       </c>
       <c r="I30">
-        <v>0.4039051773855191</v>
+        <v>0.4594559737541049</v>
       </c>
       <c r="J30">
-        <v>0.403905177385519</v>
+        <v>0.4594559737541049</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>15.33829433333333</v>
+        <v>19.47575366666667</v>
       </c>
       <c r="N30">
-        <v>46.014883</v>
+        <v>58.427261</v>
       </c>
       <c r="O30">
-        <v>0.693360973817303</v>
+        <v>0.7530371613485785</v>
       </c>
       <c r="P30">
-        <v>0.6933609738173031</v>
+        <v>0.7530371613485783</v>
       </c>
       <c r="Q30">
-        <v>1611.802705806377</v>
+        <v>2490.299052985989</v>
       </c>
       <c r="R30">
-        <v>14506.2243522574</v>
+        <v>22412.6914768739</v>
       </c>
       <c r="S30">
-        <v>0.280052087121874</v>
+        <v>0.3459874222404381</v>
       </c>
       <c r="T30">
-        <v>0.280052087121874</v>
+        <v>0.345987422240438</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,46 +2341,46 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>105.0835686666667</v>
+        <v>127.8666333333333</v>
       </c>
       <c r="H31">
-        <v>315.250706</v>
+        <v>383.5999</v>
       </c>
       <c r="I31">
-        <v>0.4039051773855191</v>
+        <v>0.4594559737541049</v>
       </c>
       <c r="J31">
-        <v>0.403905177385519</v>
+        <v>0.4594559737541049</v>
       </c>
       <c r="K31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L31">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M31">
-        <v>0.5789353333333334</v>
+        <v>0.4271743333333333</v>
       </c>
       <c r="N31">
-        <v>1.736806</v>
+        <v>1.281523</v>
       </c>
       <c r="O31">
-        <v>0.02617052181772873</v>
+        <v>0.01651685233238837</v>
       </c>
       <c r="P31">
-        <v>0.02617052181772874</v>
+        <v>0.01651685233238837</v>
       </c>
       <c r="Q31">
-        <v>60.83659085389289</v>
+        <v>54.62134384974444</v>
       </c>
       <c r="R31">
-        <v>547.5293176850359</v>
+        <v>491.5920946477</v>
       </c>
       <c r="S31">
-        <v>0.01057040925706132</v>
+        <v>0.007588766471730258</v>
       </c>
       <c r="T31">
-        <v>0.01057040925706132</v>
+        <v>0.007588766471730256</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>30.16156866666667</v>
+        <v>5.570446333333334</v>
       </c>
       <c r="H32">
-        <v>90.484706</v>
+        <v>16.711339</v>
       </c>
       <c r="I32">
-        <v>0.115930719684436</v>
+        <v>0.02001597115374626</v>
       </c>
       <c r="J32">
-        <v>0.115930719684436</v>
+        <v>0.02001597115374626</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>3.727027666666666</v>
+        <v>4.128575666666666</v>
       </c>
       <c r="N32">
-        <v>11.181083</v>
+        <v>12.385727</v>
       </c>
       <c r="O32">
-        <v>0.1684786767188367</v>
+        <v>0.1596328929627292</v>
       </c>
       <c r="P32">
-        <v>0.1684786767188367</v>
+        <v>0.1596328929627292</v>
       </c>
       <c r="Q32">
-        <v>112.4130008907331</v>
+        <v>22.99800918427256</v>
       </c>
       <c r="R32">
-        <v>1011.717008016598</v>
+        <v>206.982082658453</v>
       </c>
       <c r="S32">
-        <v>0.01953185424349616</v>
+        <v>0.003195207380731052</v>
       </c>
       <c r="T32">
-        <v>0.01953185424349617</v>
+        <v>0.003195207380731052</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>30.16156866666667</v>
+        <v>5.570446333333334</v>
       </c>
       <c r="H33">
-        <v>90.484706</v>
+        <v>16.711339</v>
       </c>
       <c r="I33">
-        <v>0.115930719684436</v>
+        <v>0.02001597115374626</v>
       </c>
       <c r="J33">
-        <v>0.115930719684436</v>
+        <v>0.02001597115374626</v>
       </c>
       <c r="K33">
         <v>2</v>
@@ -2483,28 +2483,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M33">
-        <v>0.5869133333333333</v>
+        <v>0.5869133333333334</v>
       </c>
       <c r="N33">
         <v>1.76074</v>
       </c>
       <c r="O33">
-        <v>0.02653116386363686</v>
+        <v>0.02269321937704552</v>
       </c>
       <c r="P33">
-        <v>0.02653116386363687</v>
+        <v>0.02269321937704552</v>
       </c>
       <c r="Q33">
-        <v>17.70222680471555</v>
+        <v>3.269369225651112</v>
       </c>
       <c r="R33">
-        <v>159.32004124244</v>
+        <v>29.42432303086001</v>
       </c>
       <c r="S33">
-        <v>0.003075776920777122</v>
+        <v>0.0004542268244365789</v>
       </c>
       <c r="T33">
-        <v>0.003075776920777123</v>
+        <v>0.0004542268244365788</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>30.16156866666667</v>
+        <v>5.570446333333334</v>
       </c>
       <c r="H34">
-        <v>90.484706</v>
+        <v>16.711339</v>
       </c>
       <c r="I34">
-        <v>0.115930719684436</v>
+        <v>0.02001597115374626</v>
       </c>
       <c r="J34">
-        <v>0.115930719684436</v>
+        <v>0.02001597115374626</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.4571283333333334</v>
+        <v>0.4350383333333334</v>
       </c>
       <c r="N34">
-        <v>1.371385</v>
+        <v>1.305115</v>
       </c>
       <c r="O34">
-        <v>0.02066428896664678</v>
+        <v>0.01682091677775979</v>
       </c>
       <c r="P34">
-        <v>0.02066428896664678</v>
+        <v>0.01682091677775978</v>
       </c>
       <c r="Q34">
-        <v>13.78770761531222</v>
+        <v>2.423357688776111</v>
       </c>
       <c r="R34">
-        <v>124.08936853781</v>
+        <v>21.810219198985</v>
       </c>
       <c r="S34">
-        <v>0.002395625891670511</v>
+        <v>0.0003366869850032063</v>
       </c>
       <c r="T34">
-        <v>0.002395625891670511</v>
+        <v>0.0003366869850032063</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>30.16156866666667</v>
+        <v>5.570446333333334</v>
       </c>
       <c r="H35">
-        <v>90.484706</v>
+        <v>16.711339</v>
       </c>
       <c r="I35">
-        <v>0.115930719684436</v>
+        <v>0.02001597115374626</v>
       </c>
       <c r="J35">
-        <v>0.115930719684436</v>
+        <v>0.02001597115374626</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>1.433359</v>
+        <v>0.8094829999999998</v>
       </c>
       <c r="N35">
-        <v>4.300077</v>
+        <v>2.428449</v>
       </c>
       <c r="O35">
-        <v>0.06479437481584789</v>
+        <v>0.03129895720149869</v>
       </c>
       <c r="P35">
-        <v>0.0647943748158479</v>
+        <v>0.03129895720149869</v>
       </c>
       <c r="Q35">
-        <v>43.23235590248467</v>
+        <v>4.509181609245666</v>
       </c>
       <c r="R35">
-        <v>389.091203122362</v>
+        <v>40.582634483211</v>
       </c>
       <c r="S35">
-        <v>0.00751165850390434</v>
+        <v>0.0006264790244875364</v>
       </c>
       <c r="T35">
-        <v>0.007511658503904342</v>
+        <v>0.0006264790244875366</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>30.16156866666667</v>
+        <v>5.570446333333334</v>
       </c>
       <c r="H36">
-        <v>90.484706</v>
+        <v>16.711339</v>
       </c>
       <c r="I36">
-        <v>0.115930719684436</v>
+        <v>0.02001597115374626</v>
       </c>
       <c r="J36">
-        <v>0.115930719684436</v>
+        <v>0.02001597115374626</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>15.33829433333333</v>
+        <v>19.47575366666667</v>
       </c>
       <c r="N36">
-        <v>46.014883</v>
+        <v>58.427261</v>
       </c>
       <c r="O36">
-        <v>0.693360973817303</v>
+        <v>0.7530371613485785</v>
       </c>
       <c r="P36">
-        <v>0.6933609738173031</v>
+        <v>0.7530371613485783</v>
       </c>
       <c r="Q36">
-        <v>462.6270177643775</v>
+        <v>108.4886406013866</v>
       </c>
       <c r="R36">
-        <v>4163.643159879398</v>
+        <v>976.3977654124792</v>
       </c>
       <c r="S36">
-        <v>0.08038183669574131</v>
+        <v>0.01507277009925211</v>
       </c>
       <c r="T36">
-        <v>0.08038183669574132</v>
+        <v>0.01507277009925211</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,46 +2713,46 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>30.16156866666667</v>
+        <v>5.570446333333334</v>
       </c>
       <c r="H37">
-        <v>90.484706</v>
+        <v>16.711339</v>
       </c>
       <c r="I37">
-        <v>0.115930719684436</v>
+        <v>0.02001597115374626</v>
       </c>
       <c r="J37">
-        <v>0.115930719684436</v>
+        <v>0.02001597115374626</v>
       </c>
       <c r="K37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L37">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M37">
-        <v>0.5789353333333334</v>
+        <v>0.4271743333333333</v>
       </c>
       <c r="N37">
-        <v>1.736806</v>
+        <v>1.281523</v>
       </c>
       <c r="O37">
-        <v>0.02617052181772873</v>
+        <v>0.01651685233238837</v>
       </c>
       <c r="P37">
-        <v>0.02617052181772874</v>
+        <v>0.01651685233238837</v>
       </c>
       <c r="Q37">
-        <v>17.46159780989289</v>
+        <v>2.379551698810778</v>
       </c>
       <c r="R37">
-        <v>157.154380289036</v>
+        <v>21.415965289297</v>
       </c>
       <c r="S37">
-        <v>0.003033967428846526</v>
+        <v>0.0003306008398357723</v>
       </c>
       <c r="T37">
-        <v>0.003033967428846526</v>
+        <v>0.0003306008398357723</v>
       </c>
     </row>
   </sheetData>
